--- a/глоссария_Бондарь_А.xlsx
+++ b/глоссария_Бондарь_А.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F65080C-2E19-4F78-84C2-8ED1662BB70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66FC14A-42C7-456F-83D2-EB8BEB416ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{446DF217-27AD-4DAC-BE69-8DE622D0F3FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="313">
   <si>
     <t>Термин RUS</t>
   </si>
@@ -764,9 +764,6 @@
   </si>
   <si>
     <t>представляет собой процесс разработки программного обеспечения, сочетающий в себе как итеративность, так и этапность. Отличительной особенностью этой модели является специальное внимание рискам, влияющим на организацию жизненного цикла.</t>
-  </si>
-  <si>
-    <t>agile-разработка</t>
   </si>
   <si>
     <t>gile software development</t>
@@ -925,12 +922,221 @@
       <t xml:space="preserve"> назначение,  зависимость</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Бизнес-анализ </t>
+  </si>
+  <si>
+    <t>business analysis</t>
+  </si>
+  <si>
+    <t>деятельность, которая делает возможным проведение
+изменений в организации, приносящих пользу заинтересованным сторонам, путём выявления
+потребностей и обоснования решений, описывающих возможные пути реализации изменений.</t>
+  </si>
+  <si>
+    <t>Бизнес-аналитик</t>
+  </si>
+  <si>
+    <t>специалист, использующий методы бизнес-анализа для исследования
+потребностей деятельности организаций с целью определения проблем бизнеса и предложения их
+решения.</t>
+  </si>
+  <si>
+    <t>Business Analysis Body of Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BABOK </t>
+  </si>
+  <si>
+    <t>руководство к
+своду знаний по бизнес-анализу от Международного института IIBA</t>
+  </si>
+  <si>
+    <t>само руководство позиционируется не как профессиональный
+стандарт бизнес-аналитика, а как набор общепринятых практик бизнес-анализа. Однако, с
+прикладной точки зрения этот документ можно рассматривать именно как профессиональный
+стандарт или фреймворк профессиональной деятельности бизнес-аналитика, который описывает
+входящие в нее области знаний, базовые компетенции, методы, техники, подходы и практики.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Декомпозиция </t>
+  </si>
+  <si>
+    <t>операция мышления, состоящая в разделении целого на части.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Синтез </t>
+  </si>
+  <si>
+    <t>от греч. synthesis - соединение, сочетание, составление</t>
+  </si>
+  <si>
+    <t>мысленное
+соединение в единое целое частей предмета или его признаков, полученных в процессе
+анализа, которое осуществляется как в практической деятельности, так и в процессе
+познания.</t>
+  </si>
+  <si>
+    <t>Ценность задачи по декомпозиции в БА — это разложить сложный, объемный,
+многоуровневый процесс на составные части, изучить или описать их, чаще всего способами
+или языками визуального моделирования, чтобы потом использовать знания в деятельности
+организации.
+В СА декомпозиция также применяется для анализа системных процессов и помогает
+описать, понять и затем реализовать подзадачи более крупной задачи командой.</t>
+  </si>
+  <si>
+    <t>БА</t>
+  </si>
+  <si>
+    <t>это общее понятие, характеризующее совокупность необратимых и
+взаимосвязанных изменений (как спонтанных, так и управляемых, как самоорганизованных,
+так и организуемых), результатом которых является переход в иное состояние объекта
+изменений.</t>
+  </si>
+  <si>
+    <t>Ценность идеи</t>
+  </si>
+  <si>
+    <t>решение проблемы или удовлетворение потребности.</t>
+  </si>
+  <si>
+    <t>Идея не
+должна (и не может) существовать сама по себе. Даже если Заказчик приходит сразу с идеей,
+нужно обязательно уточнять в контексте какой проблемы или потребности она возникла.</t>
+  </si>
+  <si>
+    <t>Контекстная диаграмма</t>
+  </si>
+  <si>
+    <t>является вершиной древовидной структуры диаграмм и
+представляет собой самое общее описание системы и ее взаимодействия с внешней средой.</t>
+  </si>
+  <si>
+    <t>функциональной декомпозицией</t>
+  </si>
+  <si>
+    <t>диаграммами
+декомпозиции</t>
+  </si>
+  <si>
+    <t>Системы в целом проводится разбиение ее на крупные фрагменты.</t>
+  </si>
+  <si>
+    <t>диаграммы, которые
+описывают каждый фрагмент и взаимодействие фрагментов</t>
+  </si>
+  <si>
+    <t>Клиентский путь</t>
+  </si>
+  <si>
+    <t>Customer journey</t>
+  </si>
+  <si>
+    <t>это активный исследовательский процесс, который проходит покупатель на пути от возникновения задачи, которую нужно решить до покупки, которая ему в этом поможет.</t>
+  </si>
+  <si>
+    <t>Диаграмма клиентского пути</t>
+  </si>
+  <si>
+    <t>Customer journey Map</t>
+  </si>
+  <si>
+    <t>это детализированное описание движения
+клиента, которое часто оказывается нелинейным, от момента возникновения потребности в товаре
+или услуге до совершения покупки.</t>
+  </si>
+  <si>
+    <t>CJM</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>Главная цель — выявить все точки контакта с потребителем и уязвимые места, на которых
+возможна его потеря.</t>
+  </si>
+  <si>
+    <t>Пользовательский путь</t>
+  </si>
+  <si>
+    <t>User Journey</t>
+  </si>
+  <si>
+    <t>это опыт пользователя во время взаимодействия с
+продуктом.</t>
+  </si>
+  <si>
+    <t>Карта пользовательского пути</t>
+  </si>
+  <si>
+    <t>User journey Map</t>
+  </si>
+  <si>
+    <t>это детализированное описание движения
+пользователя по продукту без привязки к конкретному элементу в продукте.</t>
+  </si>
+  <si>
+    <t>UJM</t>
+  </si>
+  <si>
+    <t>Главная цель  — описать опыт (чувства, успехи, неудачи) пользователя</t>
+  </si>
+  <si>
+    <t>Пользовательские сценарии</t>
+  </si>
+  <si>
+    <t>User Flows</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>1) это визуальное представление последовательности
+действий, которые пользователь выполняет для достижения своей цели.                2) Пользовательский сценарий — это наглядные материалы, которые иллюстрируют весь
+путь пользователя в продукте. Может охватывать как какую-то отдельную функцию, так и полностью
+весь продукт.</t>
+  </si>
+  <si>
+    <t>Главная цель— наглядно описать и представить взаимодействие пользователя с продуктом. В основе user flow лежат задачи, которые выполняет пользователь, а также возможные
+альтернативные исходы.</t>
+  </si>
+  <si>
+    <t>Риск</t>
+  </si>
+  <si>
+    <t>вероятное событие, в результате наступления которого могут произойти положительные,
+нейтральные или отрицательные последствия.</t>
+  </si>
+  <si>
+    <t>Риск-менеджмент</t>
+  </si>
+  <si>
+    <t>Risk management</t>
+  </si>
+  <si>
+    <t>процесс принятия и исполнения
+управленческих решений, направленных на снижение вероятности возникновения неблагоприятного
+результата и минимизацию возможных потерь, вызванных его реализацией.</t>
+  </si>
+  <si>
+    <t>Митигация (или митигирование) рисков</t>
+  </si>
+  <si>
+    <t>термин, происходящий от английского слова
+mitigation, означающего «смягчение» или «смягчение последствий».</t>
+  </si>
+  <si>
+    <t>это снижение последствий от их реализации.</t>
+  </si>
+  <si>
+    <t>Agile-разработка</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,6 +1206,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1037,7 +1260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1058,6 +1281,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1377,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722A24FC-BAF2-4138-92B7-894741062103}">
   <dimension ref="A1:N356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,7 +1767,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2293,7 +2522,7 @@
         <v>145</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>146</v>
@@ -2322,7 +2551,7 @@
         <v>150</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>146</v>
@@ -2438,7 +2667,7 @@
         <v>188</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>146</v>
@@ -2750,20 +2979,20 @@
     </row>
     <row r="49" spans="1:13" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -2775,20 +3004,20 @@
     </row>
     <row r="50" spans="1:13" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -2800,18 +3029,18 @@
     </row>
     <row r="51" spans="1:13" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -2823,20 +3052,20 @@
     </row>
     <row r="52" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -2849,19 +3078,19 @@
     <row r="53" spans="1:13" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="B53" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="D53" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -2871,273 +3100,423 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+    <row r="54" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5">
+        <v>2</v>
+      </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+    <row r="55" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5">
+        <v>2</v>
+      </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+    <row r="56" spans="1:13" ht="231" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4"/>
+      <c r="B56" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5">
+        <v>2</v>
+      </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
+    <row r="57" spans="1:13" ht="245.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5">
+        <v>2</v>
+      </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+    <row r="58" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5">
+        <v>2</v>
+      </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+    <row r="59" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5">
+        <v>2</v>
+      </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+    <row r="60" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5">
+        <v>2</v>
+      </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+    <row r="61" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5">
+        <v>2</v>
+      </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
+    <row r="62" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5">
+        <v>2</v>
+      </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
+    <row r="63" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5">
+        <v>2</v>
+      </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+    <row r="64" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5">
+        <v>2</v>
+      </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+    <row r="65" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5">
+        <v>2</v>
+      </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+    <row r="66" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5">
+        <v>2</v>
+      </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+    <row r="67" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5">
+        <v>2</v>
+      </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+    <row r="68" spans="1:13" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5">
+        <v>2</v>
+      </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
+    <row r="69" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5">
+        <v>2</v>
+      </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+    <row r="70" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5">
+        <v>2</v>
+      </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
+    <row r="71" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5">
+        <v>2</v>
+      </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
@@ -3152,7 +3531,9 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+      <c r="K72" s="3">
+        <v>3</v>
+      </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>

--- a/глоссария_Бондарь_А.xlsx
+++ b/глоссария_Бондарь_А.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66FC14A-42C7-456F-83D2-EB8BEB416ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187123E3-A068-4BD1-B30E-5B93AAD6B8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{446DF217-27AD-4DAC-BE69-8DE622D0F3FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="332">
   <si>
     <t>Термин RUS</t>
   </si>
@@ -684,9 +684,6 @@
   </si>
   <si>
     <t>Лекция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RACI </t>
   </si>
   <si>
     <t>инструмент для управления отношениями в команде; это
@@ -708,9 +705,6 @@
     <t>Каскадная модель</t>
   </si>
   <si>
-    <t>waterfall model</t>
-  </si>
-  <si>
     <t>иногда переводят как модель «Водопад»</t>
   </si>
   <si>
@@ -764,9 +758,6 @@
   </si>
   <si>
     <t>представляет собой процесс разработки программного обеспечения, сочетающий в себе как итеративность, так и этапность. Отличительной особенностью этой модели является специальное внимание рискам, влияющим на организацию жизненного цикла.</t>
-  </si>
-  <si>
-    <t>gile software development</t>
   </si>
   <si>
     <t>обобщающий термин
@@ -809,9 +800,6 @@
 там можно прочитать их описание, уровень важности и дополнительную информацию. Когда задача
 завершает определённый этап, карточку с её описанием переносят в соответствующую колонку.
 Взглянув на доску, можно сразу понять, как обстоит ситуация с проектом.</t>
-  </si>
-  <si>
-    <t>Бережли́ вая разрабо́тка програ́ммного обеспече́ния</t>
   </si>
   <si>
     <t>методология разработки программного
@@ -1012,13 +1000,6 @@
 представляет собой самое общее описание системы и ее взаимодействия с внешней средой.</t>
   </si>
   <si>
-    <t>функциональной декомпозицией</t>
-  </si>
-  <si>
-    <t>диаграммами
-декомпозиции</t>
-  </si>
-  <si>
     <t>Системы в целом проводится разбиение ее на крупные фрагменты.</t>
   </si>
   <si>
@@ -1130,6 +1111,84 @@
   </si>
   <si>
     <t>Agile-разработка</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>Incremental model</t>
+  </si>
+  <si>
+    <t>Waterfall model</t>
+  </si>
+  <si>
+    <t>Discovery process</t>
+  </si>
+  <si>
+    <t>Delivery process</t>
+  </si>
+  <si>
+    <t>Iterative model</t>
+  </si>
+  <si>
+    <t>Spiral model</t>
+  </si>
+  <si>
+    <t>Agile software development</t>
+  </si>
+  <si>
+    <t>The value of an idea</t>
+  </si>
+  <si>
+    <t>Context diagram</t>
+  </si>
+  <si>
+    <t>Функциональной декомпозицией</t>
+  </si>
+  <si>
+    <t>Functional decomposition</t>
+  </si>
+  <si>
+    <t>Диаграммами
+декомпозиции</t>
+  </si>
+  <si>
+    <t>Diagrams
+decomposition</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Mitigation (or mitigation) of risks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Business analyst</t>
+  </si>
+  <si>
+    <t>Бережли́вая разрабо́тка програ́ммного обеспече́ния</t>
+  </si>
+  <si>
+    <t>Lean software development</t>
+  </si>
+  <si>
+    <t>Kanban</t>
+  </si>
+  <si>
+    <t>V-shaped model</t>
+  </si>
+  <si>
+    <t>RACI (Responsbile, Accountable, Consulted, Informed)</t>
+  </si>
+  <si>
+    <t>RACI matrix</t>
+  </si>
+  <si>
+    <t>Рациональный унифицированный процесс</t>
+  </si>
+  <si>
+    <t>Свод знаний по бизнес-анализу</t>
   </si>
 </sst>
 </file>
@@ -1200,14 +1259,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF202122"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
@@ -1217,7 +1275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
+      <color rgb="FF202122"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1606,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722A24FC-BAF2-4138-92B7-894741062103}">
   <dimension ref="A1:N356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1767,7 +1825,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2522,7 +2580,7 @@
         <v>145</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>146</v>
@@ -2551,7 +2609,7 @@
         <v>150</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>146</v>
@@ -2667,7 +2725,7 @@
         <v>188</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>146</v>
@@ -2747,7 +2805,9 @@
       <c r="B39" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="D39" s="5" t="s">
         <v>202</v>
       </c>
@@ -2795,7 +2855,9 @@
       <c r="A41" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
         <v>210</v>
@@ -2818,7 +2880,9 @@
       <c r="A42" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
         <v>213</v>
@@ -2839,20 +2903,22 @@
     </row>
     <row r="43" spans="1:14" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B43" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>329</v>
+      </c>
       <c r="C43" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -2864,20 +2930,20 @@
     </row>
     <row r="44" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -2889,12 +2955,14 @@
     </row>
     <row r="45" spans="1:14" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B45" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>327</v>
+      </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -2910,18 +2978,20 @@
     </row>
     <row r="46" spans="1:14" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -2933,18 +3003,20 @@
     </row>
     <row r="47" spans="1:14" ht="231" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B47" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -2956,18 +3028,20 @@
     </row>
     <row r="48" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B48" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -2979,20 +3053,20 @@
     </row>
     <row r="49" spans="1:13" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -3004,20 +3078,20 @@
     </row>
     <row r="50" spans="1:13" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -3029,18 +3103,20 @@
     </row>
     <row r="51" spans="1:13" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" s="5"/>
+        <v>238</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -3052,20 +3128,22 @@
     </row>
     <row r="52" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B52" s="5"/>
+        <v>324</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="C52" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -3076,21 +3154,23 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4"/>
+      <c r="A53" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="B53" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -3102,16 +3182,16 @@
     </row>
     <row r="54" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -3127,12 +3207,14 @@
     </row>
     <row r="55" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B55" s="5"/>
+        <v>255</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -3147,21 +3229,23 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13" ht="231" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4"/>
+      <c r="A56" s="4" t="s">
+        <v>331</v>
+      </c>
       <c r="B56" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -3173,18 +3257,20 @@
     </row>
     <row r="57" spans="1:13" ht="245.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B57" s="5"/>
+        <v>261</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -3196,18 +3282,20 @@
     </row>
     <row r="58" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B58" s="5"/>
+        <v>263</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -3221,10 +3309,12 @@
       <c r="A59" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -3240,18 +3330,20 @@
     </row>
     <row r="60" spans="1:13" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B60" s="5"/>
+        <v>269</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -3263,12 +3355,14 @@
     </row>
     <row r="61" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B61" s="5"/>
+        <v>272</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>316</v>
+      </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -3283,13 +3377,15 @@
       <c r="M61" s="3"/>
     </row>
     <row r="62" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B62" s="5"/>
+      <c r="A62" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="9" t="s">
-        <v>280</v>
+      <c r="D62" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -3305,12 +3401,14 @@
     </row>
     <row r="63" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B63" s="5"/>
+        <v>319</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -3326,16 +3424,16 @@
     </row>
     <row r="64" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -3351,22 +3449,22 @@
     </row>
     <row r="65" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -3378,14 +3476,14 @@
     </row>
     <row r="66" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -3401,22 +3499,22 @@
     </row>
     <row r="67" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -3428,22 +3526,22 @@
     </row>
     <row r="68" spans="1:13" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -3455,12 +3553,14 @@
     </row>
     <row r="69" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B69" s="5"/>
+        <v>298</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -3476,14 +3576,14 @@
     </row>
     <row r="70" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -3499,18 +3599,20 @@
     </row>
     <row r="71" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B71" s="5"/>
+        <v>303</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>322</v>
+      </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
